--- a/BUGTRACE.xlsx
+++ b/BUGTRACE.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="24">
   <si>
     <t>项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,6 +83,30 @@
   </si>
   <si>
     <t>使用Qlabel显示图片名。以对话框显示图片内容。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beta 0.2.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片尺寸超过图片显示对话框尺寸时，不能完全显示。缩放或者扩展对话框尺寸均可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送的按钮显示不够友好。应显式的设置“发送”按钮。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改update按钮的图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩展对话框,按比例缩放，单击后放大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过QLocalServer，QLocalSocket锁定查询，互斥。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -451,15 +475,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="24.25" customWidth="1"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
     <col min="2" max="2" width="12.375" customWidth="1"/>
     <col min="3" max="3" width="16.75" customWidth="1"/>
     <col min="4" max="4" width="77.75" customWidth="1"/>
@@ -591,6 +615,66 @@
         <v>16</v>
       </c>
       <c r="F7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="2">
+        <v>41092.384687500002</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="2">
+        <v>41092.384687500002</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="2">
+        <v>41094.385601851849</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
         <v>8</v>
       </c>
     </row>
@@ -645,7 +729,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0AC6BDDC-1D81-48FB-8A9C-A3901F70CE76}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4EF2377-808C-4960-879F-BCEB2080BDB5}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/BUGTRACE.xlsx
+++ b/BUGTRACE.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="29">
   <si>
     <t>项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,10 +74,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>未解决</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>加入logging</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -107,6 +103,30 @@
   </si>
   <si>
     <t>通过QLocalServer，QLocalSocket锁定查询，互斥。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beta 0.2.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主循环监听信息送达逻辑有误。体现在消息未读后的重复提示。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改架构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hometimeline中，自己的消息不要展示。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息展示中，用户头像不是96*96时的处理。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QRubberBand</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -475,10 +495,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -560,8 +580,11 @@
       <c r="D4" t="s">
         <v>10</v>
       </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -578,7 +601,7 @@
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
         <v>8</v>
@@ -612,7 +635,7 @@
         <v>41085.407280092593</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s">
         <v>8</v>
@@ -623,16 +646,16 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="2">
         <v>41092.384687500002</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -643,16 +666,16 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="2">
         <v>41092.384687500002</v>
       </c>
       <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
         <v>20</v>
-      </c>
-      <c r="E9" t="s">
-        <v>21</v>
       </c>
       <c r="F9" t="s">
         <v>8</v>
@@ -663,7 +686,7 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="2">
         <v>41094.385601851849</v>
@@ -672,9 +695,63 @@
         <v>6</v>
       </c>
       <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
         <v>23</v>
       </c>
-      <c r="F10" t="s">
+      <c r="C11" s="2">
+        <v>41101.486226851855</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="2">
+        <v>41101.486226851855</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="2">
+        <v>41101.486226851855</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" t="s">
         <v>8</v>
       </c>
     </row>
@@ -729,7 +806,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4EF2377-808C-4960-879F-BCEB2080BDB5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{591E52C6-4CBD-4C56-A6E9-54A37E2A4602}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/BUGTRACE.xlsx
+++ b/BUGTRACE.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="32">
   <si>
     <t>项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -127,6 +127,18 @@
   </si>
   <si>
     <t>QRubberBand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beta 0.2.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拟加入各项功能的快捷键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qaction</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -206,6 +218,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -217,7 +297,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -495,10 +575,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -753,6 +833,23 @@
       </c>
       <c r="F13" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="2">
+        <v>41117.343182870369</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -806,7 +903,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{591E52C6-4CBD-4C56-A6E9-54A37E2A4602}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14C10A47-B18C-4A96-8467-9AB43E40F476}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>